--- a/PWBE2/Integrador/back/dados_planilhas/Ambientes.xlsx
+++ b/PWBE2/Integrador/back/dados_planilhas/Ambientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1021328\Documents\integrador2\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56914185808\Documents\SENAI-2-TERMO\PWBE2\Integrador\back\dados_planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B596403-5D7E-4F7A-98AE-F7043704A18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B36A3CF-FDFF-4F13-A85A-61EF951C9F44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A692718-6F78-48FD-BEEA-BFCF8DBDF898}"/>
   </bookViews>
@@ -951,7 +951,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -975,13 +975,90 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -991,32 +1068,237 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1027,6 +1309,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B15260AF-0080-4A91-BEBF-9578BC39645B}" name="Tabela1" displayName="Tabela1" ref="A1:D142" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:D142" xr:uid="{6A11CB7C-6EB2-48EA-8CB3-8A8A374547B2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C5F60028-F3DD-4161-A635-8DC8E038D9B0}" name="sig" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8994D90A-FD97-413E-AC60-8004B67D618E}" name="descricao" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A57A945E-153B-4E75-88C4-5CED86CC2609}" name="ni" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{505CBE2E-4BD3-4E9D-952A-3973B44195C7}" name="responsavel" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,7 +1644,7 @@
   <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1361,1994 +1656,1997 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>20400001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>20400002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>20400003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>20400004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>20400005</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>20400006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>20400007</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>20400008</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>20400009</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>20400010</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>1082157</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>20400011</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>20400012</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>20400013</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>1015370</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>20400014</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>20400015</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>20400016</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>20400017</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>20400018</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>20400019</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>20400020</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>20400021</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>20400022</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>20400023</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>20400024</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>20400025</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="8">
         <v>1037639</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>20400026</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="8">
         <v>1070295</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>20400027</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="8">
         <v>1075300</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>20400028</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="10">
         <v>1041589</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>20400029</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>20400030</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="8">
         <v>1082157</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>20400031</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>20400032</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="8">
         <v>1071919</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>20400033</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <v>1062194</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>20400034</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <v>1022984</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>20400035</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8">
         <v>1019116</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>20400036</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="8">
         <v>1017489</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>20400037</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>20400038</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>20400039</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>20400040</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>20400041</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>20400042</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>20400043</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>20400044</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>20400045</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>20400046</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>20400047</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>20400048</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>20400049</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>20400050</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>20400051</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>20400052</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>20400053</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>20400054</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>20400055</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>20400056</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>20400057</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>20400058</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>20400059</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="8">
         <v>1065905</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>20400060</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>20400061</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>20400062</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>20400063</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <v>20400064</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <v>20400065</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <v>20400066</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <v>20400067</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1">
+      <c r="A69" s="4">
         <v>20400068</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="1">
+      <c r="A70" s="4">
         <v>20400069</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="1">
+      <c r="A71" s="4">
         <v>20400070</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="1">
+      <c r="A72" s="4">
         <v>20400071</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1">
+      <c r="A73" s="4">
         <v>20400072</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="1">
+      <c r="A74" s="4">
         <v>20400073</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="1">
+      <c r="A75" s="4">
         <v>20400074</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="8">
         <v>1078550</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="1">
+      <c r="A76" s="4">
         <v>20400075</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1">
+      <c r="A77" s="4">
         <v>20400076</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="1">
+      <c r="A78" s="4">
         <v>20400077</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="1">
+      <c r="A79" s="4">
         <v>20400078</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="1">
+      <c r="A80" s="4">
         <v>20400079</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="1">
+      <c r="A81" s="4">
         <v>20400080</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="1">
+      <c r="A82" s="4">
         <v>20400081</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="8">
         <v>1076583</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="1">
+      <c r="A83" s="4">
         <v>20400082</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="1">
+      <c r="A84" s="4">
         <v>20400083</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="1">
+      <c r="A85" s="4">
         <v>20400084</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="1">
+      <c r="A86" s="4">
         <v>20400085</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="1">
+      <c r="A87" s="4">
         <v>20400086</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="1">
+      <c r="A88" s="4">
         <v>20400087</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="1">
+      <c r="A89" s="4">
         <v>20400088</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="1">
+      <c r="A90" s="4">
         <v>20400089</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="1">
+      <c r="A91" s="4">
         <v>20400090</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="1">
+      <c r="A92" s="4">
         <v>20400091</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="1">
+      <c r="A93" s="4">
         <v>20400092</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="1">
+      <c r="A94" s="4">
         <v>20400093</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="1">
+      <c r="A95" s="4">
         <v>20400094</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="1">
+      <c r="A96" s="4">
         <v>20400095</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="1">
+      <c r="A97" s="4">
         <v>20400096</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="1">
+      <c r="A98" s="4">
         <v>20400097</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="8">
         <v>1086181</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="1">
+      <c r="A99" s="4">
         <v>20400098</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="1">
+      <c r="A100" s="4">
         <v>20400099</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="1">
+      <c r="A101" s="4">
         <v>20400100</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="1">
+      <c r="A102" s="4">
         <v>20400101</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="1">
+      <c r="A103" s="4">
         <v>20400102</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="1">
+      <c r="A104" s="4">
         <v>20400103</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="1">
+      <c r="A105" s="4">
         <v>20400104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="1">
+      <c r="A106" s="4">
         <v>20400105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="1">
+      <c r="A107" s="4">
         <v>20400106</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="1">
+      <c r="A108" s="4">
         <v>20400107</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="1">
+      <c r="A109" s="4">
         <v>20400108</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="1">
+      <c r="A110" s="4">
         <v>20400109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="1">
+      <c r="A111" s="4">
         <v>20400110</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="1">
+      <c r="A112" s="4">
         <v>20400111</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="1">
+      <c r="A113" s="4">
         <v>20400112</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="1">
+      <c r="A114" s="4">
         <v>20400113</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="1">
+      <c r="A115" s="4">
         <v>20400114</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="1">
+      <c r="A116" s="4">
         <v>20400115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="1">
+      <c r="A117" s="4">
         <v>20400116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="1">
+      <c r="A118" s="4">
         <v>20400117</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="1">
+      <c r="A119" s="4">
         <v>20400118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="1">
+      <c r="A120" s="4">
         <v>20400119</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="1">
+      <c r="A121" s="4">
         <v>20400120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="1">
+      <c r="A122" s="4">
         <v>20400121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="1">
+      <c r="A123" s="4">
         <v>20400122</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="1">
+      <c r="A124" s="4">
         <v>20400123</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="1">
+      <c r="A125" s="4">
         <v>20400124</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="1">
+      <c r="A126" s="4">
         <v>20400125</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="1">
+      <c r="A127" s="4">
         <v>20400126</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1">
+      <c r="A128" s="4">
         <v>20400127</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="8">
         <v>1041556</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="1">
+      <c r="A129" s="4">
         <v>20400128</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1">
+      <c r="A130" s="4">
         <v>20400129</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="1">
+      <c r="A131" s="4">
         <v>20400130</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="1">
+      <c r="A132" s="4">
         <v>20400132</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1">
+      <c r="A133" s="4">
         <v>20400133</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="1">
+      <c r="A134" s="4">
         <v>20400134</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1">
+      <c r="A135" s="4">
         <v>20400137</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="1">
+      <c r="A136" s="4">
         <v>20400138</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="1">
+      <c r="A137" s="4">
         <v>20400139</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="8">
         <v>1065905</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="1">
+      <c r="A138" s="4">
         <v>20400140</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="8">
         <v>1042028</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="9" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="1">
+      <c r="A139" s="4">
         <v>20400141</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="1">
+      <c r="A140" s="4">
         <v>20400142</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1">
+      <c r="A141" s="4">
         <v>20400143</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1">
+      <c r="A142" s="13">
         <v>20400144</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="15" t="s">
         <v>287</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>